--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213177.3107237183</v>
+        <v>-215878.5273751744</v>
       </c>
     </row>
     <row r="7">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.98946990210342</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>31.29307422680305</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>36.87850423012254</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>48.96140214064696</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>44.10068944136424</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22.89182977131125</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>87.95269430753481</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899767</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154303</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>105.1931979143611</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333234</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951751</v>
+        <v>36.27346476951736</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871392</v>
       </c>
       <c r="S6" t="n">
-        <v>143.023729469846</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>42.52392570578944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>117.1986087231393</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643905</v>
+        <v>1.905236112643635</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315186</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.6102765730544</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>128.2048615482953</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.3022315023598</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.9933220749479</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.1274230671136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>288.0401469511186</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>301.8446067627982</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>96.29765483570937</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927376</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>166.6735937915888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695432</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904695821</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229356</v>
       </c>
       <c r="G16" t="n">
-        <v>160.6789846282039</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096655182</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634833</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288553628</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>61.97958965902495</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>64.36993339924427</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0177171766852</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>115.8627380890761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428217</v>
+        <v>68.17501931583756</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>132.6164309267677</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113675</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560541</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183145</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739748</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
         <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739748</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739748</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.0315200613718</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>437.1216825999388</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="W3" t="n">
-        <v>585.6433190318585</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="X3" t="n">
-        <v>377.7918188263257</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.0315200613718</v>
+        <v>611.5747118810658</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.5223344656631</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>70.55307215834975</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>70.55307215834975</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165361</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165361</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165361</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="W4" t="n">
-        <v>803.5223344656631</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="X4" t="n">
-        <v>803.5223344656631</v>
+        <v>239.1224328033463</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.5223344656631</v>
+        <v>239.1224328033463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.5164977305176</v>
+        <v>1147.187549831993</v>
       </c>
       <c r="C5" t="n">
-        <v>439.5539807901059</v>
+        <v>1147.187549831993</v>
       </c>
       <c r="D5" t="n">
-        <v>439.5539807901059</v>
+        <v>1124.064489456932</v>
       </c>
       <c r="E5" t="n">
-        <v>439.5539807901059</v>
+        <v>738.2762368586874</v>
       </c>
       <c r="F5" t="n">
-        <v>432.6084800409024</v>
+        <v>731.330736109484</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797561</v>
+        <v>343.7673746797563</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523423</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523423</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275027</v>
+        <v>93.76641159275113</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245537</v>
+        <v>239.0325989245555</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825591</v>
+        <v>456.1499114825621</v>
       </c>
       <c r="M5" t="n">
-        <v>729.40419317488</v>
+        <v>729.4041931748844</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202372</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798403</v>
+        <v>1264.91665479841</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189398</v>
+        <v>1446.535482189407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991597</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="X5" t="n">
-        <v>808.5164977305176</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="Y5" t="n">
-        <v>808.5164977305176</v>
+        <v>1147.187549831993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.3587979688443</v>
+        <v>409.0799954647809</v>
       </c>
       <c r="C6" t="n">
-        <v>449.3587979688443</v>
+        <v>409.0799954647809</v>
       </c>
       <c r="D6" t="n">
-        <v>449.3587979688443</v>
+        <v>409.0799954647809</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3587979688443</v>
+        <v>409.0799954647809</v>
       </c>
       <c r="F6" t="n">
         <v>302.8242399957293</v>
@@ -4638,58 +4638,58 @@
         <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878727</v>
+        <v>67.33488162878731</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523423</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563343</v>
+        <v>49.44206107563402</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169429</v>
+        <v>159.6385680169442</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482936</v>
+        <v>539.4894185542202</v>
       </c>
       <c r="M6" t="n">
-        <v>733.9847623855671</v>
+        <v>785.8131792249658</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584454</v>
+        <v>1053.065041797188</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749971</v>
+        <v>1319.294480749979</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948657</v>
+        <v>1478.347425948666</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261712</v>
+        <v>1534.750911261721</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261712</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655807</v>
+        <v>1530.34668675797</v>
       </c>
       <c r="T6" t="n">
-        <v>1390.282497655807</v>
+        <v>1334.442044309654</v>
       </c>
       <c r="U6" t="n">
-        <v>1162.161413976411</v>
+        <v>1106.320960630258</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.207953667533</v>
+        <v>871.1688523985154</v>
       </c>
       <c r="W6" t="n">
-        <v>864.970596939331</v>
+        <v>616.9314956703138</v>
       </c>
       <c r="X6" t="n">
-        <v>657.1190967337982</v>
+        <v>409.0799954647809</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.3587979688443</v>
+        <v>409.0799954647809</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0019322007728</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0019322007728</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0019322007728</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0019322007728</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709676</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523423</v>
+        <v>30.69501822523442</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223259</v>
+        <v>157.4322756223265</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830374</v>
+        <v>375.1387655830386</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638813</v>
+        <v>615.0688576388147</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974795</v>
+        <v>854.7285647974818</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891668</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934018</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495179</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402736</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402736</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792809</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="U7" t="n">
-        <v>889.2012322792809</v>
+        <v>1025.503287431492</v>
       </c>
       <c r="V7" t="n">
-        <v>889.2012322792809</v>
+        <v>770.8187992256047</v>
       </c>
       <c r="W7" t="n">
-        <v>599.7840622423203</v>
+        <v>481.4016291886441</v>
       </c>
       <c r="X7" t="n">
-        <v>371.7945113443029</v>
+        <v>253.4120782906268</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0019322007728</v>
+        <v>32.61949914709668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>496.0729413699643</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>790.7764984014359</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360656</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.7403896492181</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>611.9536975776771</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>464.040603995284</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>317.1506564973736</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.699034738196</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X10" t="n">
-        <v>922.7094838401786</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.3888544794578</v>
+        <v>762.0703369900128</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724786</v>
+        <v>1938.142929854345</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784374</v>
+        <v>1647.193286469377</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1288.927587862626</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793789</v>
+        <v>903.139335264382</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897714</v>
+        <v>492.1534304747746</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706889</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656954</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
         <v>1828.95612308783</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377398</v>
+        <v>3672.904689377401</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498926</v>
+        <v>3419.410747498929</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155356</v>
+        <v>3088.347860155358</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885241</v>
+        <v>3088.347860155358</v>
       </c>
       <c r="X11" t="n">
-        <v>2430.685662700597</v>
+        <v>2714.882101894279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.546330724786</v>
+        <v>2324.742769918467</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390847</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>84.53144813504377</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626167</v>
+        <v>503.2284887929952</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193668</v>
+        <v>2014.935408783256</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.9400487687744</v>
+        <v>758.0183755659255</v>
       </c>
       <c r="C13" t="n">
-        <v>631.0038658408675</v>
+        <v>758.0183755659255</v>
       </c>
       <c r="D13" t="n">
-        <v>631.0038658408675</v>
+        <v>607.9017361535897</v>
       </c>
       <c r="E13" t="n">
-        <v>483.0907722584744</v>
+        <v>459.9886425711966</v>
       </c>
       <c r="F13" t="n">
-        <v>336.200824760564</v>
+        <v>313.0986950732862</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717527</v>
+        <v>313.0986950732862</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344807</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5224,25 +5224,25 @@
         <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276103</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225554</v>
+        <v>1627.379943126699</v>
       </c>
       <c r="V13" t="n">
-        <v>1660.155428225554</v>
+        <v>1372.695454920812</v>
       </c>
       <c r="W13" t="n">
-        <v>1370.738258188594</v>
+        <v>1083.278284883851</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.381092742544</v>
+        <v>855.2887339858339</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5885135990142</v>
+        <v>855.2887339858339</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5318,10 +5318,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5361,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434717</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155647</v>
+        <v>705.9324428257355</v>
       </c>
       <c r="D16" t="n">
-        <v>550.921708803229</v>
+        <v>555.8158034133999</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208358</v>
+        <v>407.9027098310067</v>
       </c>
       <c r="F16" t="n">
-        <v>256.1186677229255</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117242</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,52 +5510,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327686</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048617</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580265</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580265</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603205</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947403</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741516</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704556</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806538</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630083</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111748</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876767</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597698</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474341</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474341</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495237</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235172</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258114</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602311</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359464</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614464</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>762.5477693179164</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400709</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400709</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400709</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400709</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,22 +6145,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703106</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075799</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400718</v>
+        <v>580.8993044876687</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597618</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270448</v>
+        <v>244.7670222746417</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6868,10 +6868,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703115</v>
+        <v>762.5477693179084</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>849.3843576263198</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121646</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121646</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121646</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121646</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>849.3843576263198</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7403,40 +7403,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637076</v>
+        <v>34.43939438637025</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514387</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500295</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76202891582375</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.41009271441675</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>73.66059580999826</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>77.23274481988898</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393737</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>67.88649391567083</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.53432534622793</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>59.03606159744837</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.355920853283933e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0033420516696</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4.845153664064952</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516605</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>144.5956654067326</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>190.158053664803</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>115.462046782693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.403330846246</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194169</v>
+        <v>72.11969353038633</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>85.9682224253271</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>127.7255247667964</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1141711.443595756</v>
+        <v>1141711.443595757</v>
       </c>
     </row>
     <row r="4">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.663699106</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
@@ -26329,7 +26329,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837525</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837523</v>
@@ -26338,7 +26338,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837523</v>
@@ -26347,13 +26347,13 @@
         <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657035</v>
+        <v>132804.2190657061</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929409</v>
+        <v>265413.0723929384</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704295</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417334</v>
+        <v>30877.42926417402</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049648</v>
+        <v>65018.3450204959</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273067</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211562.7951796044</v>
+        <v>211562.7951796037</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="E4" t="n">
-        <v>8621.837832097794</v>
+        <v>8621.837832097744</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744269</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744353</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744297</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744248</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744231</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744253</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744246</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.25639174426</v>
+        <v>8727.256391744326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667468</v>
+        <v>72593.65038667488</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682893.6871387422</v>
+        <v>-682893.6871387423</v>
       </c>
       <c r="C6" t="n">
-        <v>-109070.0009328763</v>
+        <v>-109070.0009328783</v>
       </c>
       <c r="D6" t="n">
-        <v>-185982.3181106625</v>
+        <v>-185982.3181106599</v>
       </c>
       <c r="E6" t="n">
-        <v>-132615.5136511619</v>
+        <v>-132836.6449651368</v>
       </c>
       <c r="F6" t="n">
-        <v>3521.919897671323</v>
+        <v>3487.181972235994</v>
       </c>
       <c r="G6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.450742665</v>
       </c>
       <c r="H6" t="n">
-        <v>192830.1886681009</v>
+        <v>192795.4507426651</v>
       </c>
       <c r="I6" t="n">
-        <v>192830.1886681009</v>
+        <v>192795.4507426653</v>
       </c>
       <c r="J6" t="n">
-        <v>123831.0342489868</v>
+        <v>123796.2963235511</v>
       </c>
       <c r="K6" t="n">
-        <v>161952.7594039275</v>
+        <v>161918.0214784912</v>
       </c>
       <c r="L6" t="n">
-        <v>127811.8436476044</v>
+        <v>127777.1057221693</v>
       </c>
       <c r="M6" t="n">
-        <v>110932.7849553702</v>
+        <v>110898.0470299344</v>
       </c>
       <c r="N6" t="n">
-        <v>142990.614536077</v>
+        <v>142955.8766106417</v>
       </c>
       <c r="O6" t="n">
-        <v>192830.1886681009</v>
+        <v>192795.4507426652</v>
       </c>
       <c r="P6" t="n">
-        <v>192830.1886681009</v>
+        <v>192795.4507426652</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695721</v>
+        <v>717.3319511695742</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154279</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490084</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000937</v>
+        <v>103.2769374000958</v>
       </c>
       <c r="D3" t="n">
-        <v>216.732940947967</v>
+        <v>216.7329409479649</v>
       </c>
       <c r="E3" t="n">
         <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139217</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284611</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139215</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284611</v>
+        <v>256.8971042846087</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139217</v>
+        <v>119.9738478139241</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284611</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>345.2834218689042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669353</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,7 +27430,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,22 +27458,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>116.1519913378357</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>214.8164789307971</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>73.18917138416157</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>242.4223088952268</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>331.7912118493717</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>324.4662966702351</v>
+        <v>28.73126316233967</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863733</v>
+        <v>99.30025118863702</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660378</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968156</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840623322</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>39.87601447902273</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>190.2766614436358</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>28.22243929979196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
@@ -27792,7 +27792,7 @@
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015379</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>79.63819554233788</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0680302227123</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.57381423935163</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.3132779698563</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.4572302849812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.767097350680616e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.693908602659677e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.901235221652314e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.636462620275456e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-4.768638172255818e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365112</v>
+        <v>2.88374653736512</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579046</v>
+        <v>29.53316922579054</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817686</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756924</v>
+        <v>244.7543826756931</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023577</v>
+        <v>366.8233736023587</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952453</v>
+        <v>455.0768316952466</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791121</v>
+        <v>506.3606591791135</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284007</v>
+        <v>514.5541040284022</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974764</v>
+        <v>485.8788493974777</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562751</v>
+        <v>414.6863567562763</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868869</v>
+        <v>311.4121838868878</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277614</v>
+        <v>181.1461434277619</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020756</v>
+        <v>65.71337422020774</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731578</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892089</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5429404232704</v>
+        <v>1.542940423270405</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316413</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189757</v>
+        <v>53.12316808189772</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862619</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453787</v>
+        <v>249.1510419453794</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438648</v>
+        <v>335.0143230438658</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874167</v>
+        <v>390.9459133874179</v>
       </c>
       <c r="N6" t="n">
-        <v>401.29308841891</v>
+        <v>401.2930884189111</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348658</v>
+        <v>367.1047769348669</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190645</v>
+        <v>294.6339480190653</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573955</v>
+        <v>196.9549915739556</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392893</v>
+        <v>95.79765189392921</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399185</v>
+        <v>28.65944163399193</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989024</v>
+        <v>6.219132670989041</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730527</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141851</v>
+        <v>1.293549420141855</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907938</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572041</v>
+        <v>38.90055892572052</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402887</v>
+        <v>91.45394400402914</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401169</v>
+        <v>150.2869235401173</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154544</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773267</v>
+        <v>202.7697513773273</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022527</v>
+        <v>197.9483399022533</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669592</v>
+        <v>182.8373307669597</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960653</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266054</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565086</v>
+        <v>58.16268574565103</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101753</v>
+        <v>22.54303853101759</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060636</v>
+        <v>5.526983886060651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864651</v>
+        <v>0.07055724109864671</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>144.9058654583217</v>
       </c>
       <c r="L12" t="n">
         <v>561.4806834747747</v>
@@ -31853,7 +31853,7 @@
         <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>210.24053684173</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383444</v>
@@ -31862,7 +31862,7 @@
         <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627652</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900608</v>
+        <v>63.70847814900679</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573771</v>
+        <v>146.7335225573781</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252581</v>
+        <v>219.3104167252594</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518394</v>
+        <v>276.0144259518407</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318098</v>
+        <v>285.1410404318113</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757896</v>
+        <v>255.780637975791</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010055</v>
+        <v>183.4533610010067</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243742</v>
+        <v>89.10649401243833</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959516</v>
+        <v>18.93640691959556</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710197</v>
+        <v>111.3096029710204</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639906</v>
+        <v>383.6877278154303</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154279</v>
+        <v>248.8118794653996</v>
       </c>
       <c r="N6" t="n">
-        <v>366.7134052514004</v>
+        <v>269.9513763355778</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904214</v>
+        <v>268.9186252048392</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047342</v>
+        <v>160.6595406047351</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793348</v>
+        <v>56.97321748793405</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.017431714234</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148601</v>
+        <v>219.9055454148607</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391673</v>
+        <v>242.3536283391679</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814813</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809989</v>
+        <v>207.4224586809994</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609588</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491101</v>
+        <v>22.1550813749113</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>260.248092053483</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35264,10 +35264,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>7.064426483962674</v>
       </c>
       <c r="L12" t="n">
         <v>422.9263036949005</v>
@@ -35501,7 +35501,7 @@
         <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>67.64429239728561</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240141</v>
@@ -35510,7 +35510,7 @@
         <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655342</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999023</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396452</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066329</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
